--- a/5_semester/opt_met/11th_task/11 .xlsx
+++ b/5_semester/opt_met/11th_task/11 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pit\5_semester\opt_met\11th_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0F204-C07B-4706-9F72-4B7279F381AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286A751-068E-4BF7-9682-8D4E9612A6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="12885" windowWidth="29040" windowHeight="16440" xr2:uid="{02AABEBE-B63A-4ABD-8EB7-DF33608C62E9}"/>
   </bookViews>
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,22 +146,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -172,8 +161,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -581,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75DFEF9-8B4C-470E-812E-354722B912B1}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +579,7 @@
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -618,15 +605,8 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="10"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,9 +635,8 @@
       <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -682,9 +661,8 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,9 +688,8 @@
       <c r="H4" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,10 +715,8 @@
       <c r="H5" s="6">
         <v>0.41666666666666702</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -768,9 +743,8 @@
         <f>-5/12</f>
         <v>-0.41666666666666669</v>
       </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -797,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -827,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <f>$H$9*B$17/$H$17</f>
@@ -861,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -890,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <f>$H$11*B$17/$H$17</f>
@@ -924,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -954,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <f>$H$13*B$17/$H$17</f>
@@ -988,7 +962,7 @@
         <v>-9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <f>$H$15*B$17/$H$17</f>
